--- a/LexikonMvpSoftwareDB/Umrechnungen.xlsx
+++ b/LexikonMvpSoftwareDB/Umrechnungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="9405"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13290" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -88,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -369,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +973,38 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>B31*B2</f>
+        <v>18.048000000000002</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:E30" si="0">C31*C2</f>
+        <v>99.96</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>200.06399999999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="C31">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.1042</v>
+      </c>
+      <c r="E31">
+        <v>1.67E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
